--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104" count="104">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -49,19 +49,25 @@
     <x:t>updated_by</x:t>
   </x:si>
   <x:si>
-    <x:t>da1c8c60-bbc2-4fee-aed9-97f6e5f500bc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ถ.เบา 21 FV.101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>พร้อมใช้งาน</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ร้อย.ม.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18542</x:t>
+    <x:t>garage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>symptom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a0ef280a-88d0-4a06-88fe-75c0a7fff649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รสพ. M113A1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ใช้การได้</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ร้อย.บก</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15943</x:t>
   </x:si>
   <x:si>
     <x:t>https://image.shutterstock.com/image-vector/example-red-square-grunge-stamp-260nw-327662909.jpg</x:t>
@@ -70,10 +76,256 @@
     <x:t>https://upload.wikimedia.org/wikipedia/commons/7/7c/Is-3_lesany.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>1623251699630.0</x:t>
+    <x:t>1623313823818.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>นิติ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถล้อ ร้อย.ม.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>อาการเสีย</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e4032786-d8a5-494d-a45e-8ad208a7fd80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รสพ. M106A2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313824727.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>กฤษณะ</x:t>
   </x:si>
   <x:si>
     <x:t>โอฬาร</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถล้อ ร้อย.บก</x:t>
+  </x:si>
+  <x:si>
+    <x:t>817596eb-5d1f-463e-ab98-aef386905f59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 2 1/2 ตัน M35A2 W/W (มีกว้าน)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ชะงักใช้การ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313825660.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถสายพาน ร้อย.ม.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ccc86a15-3675-416f-8959-a90fba90d4d9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 1 1/4 ตัน M1026A1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313826510.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eca7d831-5ab7-4d38-bc3b-782a0da254b3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ถ.เบา 21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313827477.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถสายพาน ร้อย.ม.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39194dd1-84cd-4b69-892f-f00e2abdd865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 1/4 ตัน M151A1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313828261.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถสายพาน ร้อย.ม.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6de9119d-d2b8-4770-a9a0-23db18cf5ae8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ใช้การไม่ได้</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313829115.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9dd4e771-502e-4e10-9102-1a40550626e8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 1/4 ตัน M50B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313829875.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f888be2d-326a-45cb-9ee2-d837b3f77700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 2 1/2 ตัน M35A2 WO/W (ไม่มีกว้าน)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313830662.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d9e810ba-8a18-40fb-a1fc-60fa90496f51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 1 1/4 ตัน TATA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16771</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313831514.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถล้อ ร้อย.ม.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>de1d9602-2727-4db8-8e6b-79de050b1956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313832260.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271df108-a93d-49d5-9906-11cdd9b29554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313833054.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9f08b7ff-9763-4118-87fd-cff715d1676f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313833871.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2d4de35b-48e1-44b6-aa7b-73d6bee671c1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 1 1/4 ตัน UNIMOG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313834728.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e3688bd2-bc77-475e-82f5-0c08e08b953c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313835735.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0c6f6c09-5b1a-4e36-ba78-668f1fa04ebd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>รยบ. 1/4 ตัน M151A2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313836528.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197ad85f-f9e5-4c85-8f5d-8967e81f7739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313837381.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18b377cd-c98e-4a53-b9bf-4abf06f89061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313838150.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>โรงรถสายพาน ร้อย.บก</x:t>
+  </x:si>
+  <x:si>
+    <x:t>825b1415-237d-43f8-ba0a-840a336b8380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313840415.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cd54fbbb-2962-410d-b056-700ae97fe680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313841335.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7dff9dd9-c230-4719-b387-e8dba122be2c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1623313842232.0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -436,7 +688,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:13">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -470,40 +722,872 @@
       <x:c r="K1" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:11">
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13">
       <x:c r="A2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>19</x:v>
+      <x:c r="D3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13">
+      <x:c r="A4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L6" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L7" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:13">
+      <x:c r="A9" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13">
+      <x:c r="A10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:13">
+      <x:c r="A11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="K11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L11" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="M11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:13">
+      <x:c r="A12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:13">
+      <x:c r="A13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="K13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:13">
+      <x:c r="A14" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13">
+      <x:c r="A15" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13">
+      <x:c r="A16" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:13">
+      <x:c r="A17" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:13">
+      <x:c r="A18" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:13">
+      <x:c r="A19" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13">
+      <x:c r="A20" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13">
+      <x:c r="A21" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:13">
+      <x:c r="A22" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
